--- a/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x..x]}}.BottomUpIncrementalSolve.Test-1.xlsx
+++ b/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x..x]}}.BottomUpIncrementalSolve.Test-1.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Abs{x,Tree{Add,(x..x)}}.BottomU" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -454,6 +454,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -502,8 +505,8 @@
         <v>6.5094722222222199</v>
       </c>
       <c r="E2">
-        <f>C2/D2</f>
-        <v>0.46086685641863795</v>
+        <f>C$9/D2</f>
+        <v>10067.636478465147</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -536,8 +539,8 @@
         <v>5.7883611111111097</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3/D3</f>
-        <v>2.5914070860587102</v>
+        <f t="shared" ref="E3:E9" si="1">C$9/D3</f>
+        <v>11321.857558990505</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -571,7 +574,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>10.902011680726801</v>
+        <v>11340.687865022714</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -605,7 +608,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>40.212891780011894</v>
+        <v>10334.713187463056</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -639,7 +642,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>105.33541555833952</v>
+        <v>6747.9535274836571</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -673,7 +676,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>192.12348449601856</v>
+        <v>3074.6795009637549</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -707,7 +710,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>216.02737427998571</v>
+        <v>864.14905532801458</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -762,7 +765,7 @@
     <row r="11" spans="1:10">
       <c r="E11">
         <f>SUM(E2:E8)/COUNTA(E2:E8)</f>
-        <v>81.093350248222833</v>
+        <v>7678.811024816694</v>
       </c>
     </row>
   </sheetData>
